--- a/docs/Results/Corrected_President_and_VP_2024.xlsx
+++ b/docs/Results/Corrected_President_and_VP_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahbirnir/Dropbox/Electionhouse_Perludem_UMD_UGM/Indonesia election archive/docs/Postelection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahbirnir/Dropbox/Electionhouse_Perludem_UMD_UGM/Indonesia election archive/docs/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2463E8C-E668-BE43-8875-4B73C5F472AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF406BB-C0BA-5249-A043-9CB1EC7EDC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1120" windowWidth="21020" windowHeight="15300" xr2:uid="{427718C0-8617-E845-8A94-22FDFE431C4E}"/>
+    <workbookView xWindow="4000" yWindow="1760" windowWidth="21020" windowHeight="12940" xr2:uid="{427718C0-8617-E845-8A94-22FDFE431C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="54">
   <si>
     <t>Year</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Kalimantan Utara</t>
   </si>
   <si>
-    <t>KEP.Bangka Belitung</t>
-  </si>
-  <si>
     <t>KEP.Riau</t>
   </si>
   <si>
@@ -183,17 +180,20 @@
     <t>Number of valid votes for each candidate pair</t>
   </si>
   <si>
-    <t>Missing</t>
+    <t>Validation</t>
   </si>
   <si>
-    <t>Validation</t>
+    <t>Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Papua Pegunungan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -308,6 +314,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,12 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC04AB2-52A1-2647-A84C-7B62EC260DAA}">
-  <dimension ref="A1:O417"/>
+  <dimension ref="A1:O422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane xSplit="3800" topLeftCell="H1" activePane="topRight"/>
-      <selection activeCell="F22" sqref="F22"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F101" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,13 +665,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -675,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N1"/>
       <c r="O1"/>
@@ -697,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10">
         <v>3742037</v>
@@ -723,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="6" t="s">
@@ -754,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="13"/>
@@ -782,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -811,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="14">
         <v>3269516</v>
@@ -834,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>8</v>
@@ -864,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -893,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -922,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="14">
         <v>8842646</v>
@@ -945,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>8</v>
@@ -975,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1004,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1033,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="14">
         <v>1494828</v>
@@ -1056,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>8</v>
@@ -1086,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1115,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1144,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14">
         <v>2870974</v>
@@ -1167,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>8</v>
@@ -1197,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -1226,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1255,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="14">
         <v>8252897</v>
@@ -1278,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>8</v>
@@ -1308,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1337,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1366,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="14">
         <v>881206</v>
@@ -1389,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>8</v>
@@ -1419,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1448,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1477,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="14">
         <v>2676107</v>
@@ -1500,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>8</v>
@@ -1530,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -1559,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1588,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="14">
         <v>35714901</v>
@@ -1611,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>8</v>
@@ -1641,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -1670,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -1699,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="14">
         <v>26021042</v>
@@ -1722,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>8</v>
@@ -1752,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -1781,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -1810,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="15">
         <v>27657486</v>
@@ -1833,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -1863,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -1892,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -1921,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="15">
         <v>3958561</v>
@@ -1944,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1974,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -2003,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -2032,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="15">
         <v>3025220</v>
@@ -2055,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>8</v>
@@ -2085,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -2114,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -2143,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" s="15">
         <v>1935116</v>
@@ -2166,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>8</v>
@@ -2196,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -2225,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2254,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" s="15">
         <v>2778644</v>
@@ -2277,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -2307,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -2336,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -2365,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="15">
         <v>504252</v>
@@ -2388,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>8</v>
@@ -2418,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2447,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -2470,13 +2475,13 @@
         <v>2024</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="15">
         <v>1067434</v>
@@ -2493,13 +2498,13 @@
         <v>2024</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>8</v>
@@ -2523,13 +2528,13 @@
         <v>2024</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2552,13 +2557,13 @@
         <v>2024</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2581,13 +2586,13 @@
         <v>2024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="14">
         <v>1500974</v>
@@ -2604,13 +2609,13 @@
         <v>2024</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>8</v>
@@ -2634,13 +2639,13 @@
         <v>2024</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="3"/>
@@ -2663,13 +2668,13 @@
         <v>2024</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2692,13 +2697,13 @@
         <v>2024</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E74" s="15">
         <v>6539128</v>
@@ -2717,13 +2722,13 @@
         <v>2024</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>8</v>
@@ -2747,13 +2752,13 @@
         <v>2024</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2776,13 +2781,13 @@
         <v>2024</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2805,13 +2810,13 @@
         <v>2024</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78" s="15">
         <v>1341012</v>
@@ -2828,13 +2833,13 @@
         <v>2024</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>8</v>
@@ -2858,13 +2863,13 @@
         <v>2024</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2887,13 +2892,13 @@
         <v>2024</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2916,13 +2921,13 @@
         <v>2024</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82" s="15">
         <v>953978</v>
@@ -2941,13 +2946,13 @@
         <v>2024</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -2971,13 +2976,13 @@
         <v>2024</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3000,13 +3005,13 @@
         <v>2024</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3029,13 +3034,13 @@
         <v>2024</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86" s="15">
         <v>3918291</v>
@@ -3054,13 +3059,13 @@
         <v>2024</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>8</v>
@@ -3084,13 +3089,13 @@
         <v>2024</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3113,13 +3118,13 @@
         <v>2024</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -3142,13 +3147,13 @@
         <v>2024</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E90" s="15">
         <v>4008475</v>
@@ -3165,13 +3170,13 @@
         <v>2024</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -3195,13 +3200,13 @@
         <v>2024</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -3224,13 +3229,13 @@
         <v>2024</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -3253,13 +3258,13 @@
         <v>2024</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" s="15">
         <v>727835</v>
@@ -3276,13 +3281,13 @@
         <v>2024</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>8</v>
@@ -3306,13 +3311,13 @@
         <v>2024</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -3335,13 +3340,13 @@
         <v>2024</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -3364,13 +3369,13 @@
         <v>2024</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E98" s="15">
         <v>385465</v>
@@ -3389,13 +3394,13 @@
         <v>2024</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>8</v>
@@ -3419,13 +3424,13 @@
         <v>2024</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -3448,13 +3453,13 @@
         <v>2024</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -3477,13 +3482,13 @@
         <v>2024</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E102" s="15">
         <v>440826</v>
@@ -3502,13 +3507,13 @@
         <v>2024</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>8</v>
@@ -3532,13 +3537,13 @@
         <v>2024</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -3561,13 +3566,13 @@
         <v>2024</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3590,13 +3595,13 @@
         <v>2024</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E106" s="15">
         <v>367269</v>
@@ -3615,13 +3620,13 @@
         <v>2024</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>8</v>
@@ -3645,13 +3650,13 @@
         <v>2024</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3674,13 +3679,13 @@
         <v>2024</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -3703,56 +3708,54 @@
         <v>2024</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="3">
-        <v>1</v>
-      </c>
-      <c r="J110" s="13"/>
-      <c r="K110" s="8">
-        <v>0</v>
-      </c>
-      <c r="M110" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="21">
+        <v>1102282</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>2024</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
       <c r="H111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I111" s="3">
-        <v>2</v>
-      </c>
-      <c r="J111" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="J111" s="21">
+        <v>128577</v>
+      </c>
       <c r="K111" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M111" s="20">
+        <f>F110-(J111+J112+J113)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -3760,26 +3763,28 @@
         <v>2024</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I112" s="3">
-        <v>3</v>
-      </c>
-      <c r="J112" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="J112" s="21">
+        <v>638616</v>
+      </c>
       <c r="K112" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -3787,83 +3792,83 @@
         <v>2024</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E113" s="15">
-        <v>4732174</v>
-      </c>
-      <c r="F113" s="15">
-        <v>3688504</v>
-      </c>
-      <c r="G113" s="15">
-        <v>60426</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="3">
+        <v>3</v>
+      </c>
+      <c r="J113" s="21">
+        <v>335089</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>2024</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="3">
-        <v>1</v>
-      </c>
-      <c r="J114" s="12">
-        <v>1400093</v>
-      </c>
-      <c r="K114" s="8">
-        <v>0</v>
-      </c>
-      <c r="M114" s="20">
-        <f>F113-(J114+J115+J116)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="21">
+        <v>1298522</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>2024</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I115" s="3">
-        <v>2</v>
-      </c>
-      <c r="J115" s="12">
-        <v>1931113</v>
+        <v>1</v>
+      </c>
+      <c r="J115" s="21">
+        <v>284184</v>
       </c>
       <c r="K115" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M115" s="20">
+        <f>F114-(J115+J116+J117)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3871,28 +3876,28 @@
         <v>2024</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I116" s="3">
-        <v>3</v>
-      </c>
-      <c r="J116" s="12">
-        <v>357298</v>
+        <v>2</v>
+      </c>
+      <c r="J116" s="21">
+        <v>838382</v>
       </c>
       <c r="K116" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -3900,22 +3905,28 @@
         <v>2024</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E117" s="15">
-        <v>985760</v>
-      </c>
-      <c r="F117">
-        <v>819424</v>
-      </c>
-      <c r="G117" s="15">
-        <v>533757</v>
+        <v>46</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="3">
+        <v>3</v>
+      </c>
+      <c r="J117" s="21">
+        <v>175956</v>
+      </c>
+      <c r="K117" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3923,58 +3934,54 @@
         <v>2024</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="3">
-        <v>1</v>
-      </c>
-      <c r="J118" s="12">
-        <v>223153</v>
-      </c>
-      <c r="K118" s="8">
-        <v>0</v>
-      </c>
-      <c r="M118" s="20">
-        <f>F117-(J118+J119+J120)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E118" s="15">
+        <v>4732174</v>
+      </c>
+      <c r="F118" s="15">
+        <v>3688504</v>
+      </c>
+      <c r="G118" s="15">
+        <v>60426</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>2024</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H119" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" s="12">
-        <v>533757</v>
+        <v>1400093</v>
       </c>
       <c r="K119" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M119" s="20">
+        <f>F118-(J119+J120+J121)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -3982,28 +3989,28 @@
         <v>2024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I120" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" s="12">
-        <v>62514</v>
+        <v>1931113</v>
       </c>
       <c r="K120" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4011,54 +4018,51 @@
         <v>2024</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E121" s="15">
-        <v>6670582</v>
-      </c>
-      <c r="F121">
-        <v>5279755</v>
-      </c>
-      <c r="G121" s="15">
-        <v>94598</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="3">
+        <v>3</v>
+      </c>
+      <c r="J121" s="12">
+        <v>357298</v>
+      </c>
+      <c r="K121" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>2024</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="3">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>2003081</v>
-      </c>
-      <c r="K122" s="8">
-        <v>0</v>
-      </c>
-      <c r="M122" s="20">
-        <f>F121-(J122+J123+J124)</f>
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="E122" s="15">
+        <v>985760</v>
+      </c>
+      <c r="F122">
+        <v>819424</v>
+      </c>
+      <c r="G122" s="15">
+        <v>533757</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4066,28 +4070,29 @@
         <v>2024</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H123" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I123" s="3">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3">
-        <v>3010726</v>
+        <v>1</v>
+      </c>
+      <c r="J123" s="12">
+        <v>223153</v>
       </c>
       <c r="K123" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M123" s="20">
+        <f>F122-(J123+J124+J125)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -4095,28 +4100,28 @@
         <v>2024</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I124" s="3">
-        <v>3</v>
-      </c>
-      <c r="J124" s="3">
-        <v>265948</v>
+        <v>2</v>
+      </c>
+      <c r="J124" s="12">
+        <v>533757</v>
       </c>
       <c r="K124" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4124,22 +4129,28 @@
         <v>2024</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E125" s="15">
-        <v>2236703</v>
-      </c>
-      <c r="F125" s="15">
-        <v>1798650</v>
-      </c>
-      <c r="G125" s="15">
-        <v>23792</v>
+        <v>46</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="3">
+        <v>3</v>
+      </c>
+      <c r="J125" s="12">
+        <v>62514</v>
+      </c>
+      <c r="K125" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -4147,58 +4158,54 @@
         <v>2024</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="3">
-        <v>1</v>
-      </c>
-      <c r="J126" s="12">
-        <v>386743</v>
-      </c>
-      <c r="K126" s="8">
-        <v>0</v>
-      </c>
-      <c r="M126" s="20">
-        <f>F125-(J126+J127+J128)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E126" s="15">
+        <v>6670582</v>
+      </c>
+      <c r="F126">
+        <v>5279755</v>
+      </c>
+      <c r="G126" s="15">
+        <v>94598</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>2024</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I127" s="3">
-        <v>2</v>
-      </c>
-      <c r="J127" s="12">
-        <v>1251313</v>
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2003081</v>
       </c>
       <c r="K127" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M127" s="20">
+        <f>F126-(J127+J128+J129)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4206,28 +4213,28 @@
         <v>2024</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I128" s="3">
-        <v>3</v>
-      </c>
-      <c r="J128" s="12">
-        <v>160594</v>
+        <v>2</v>
+      </c>
+      <c r="J128" s="3">
+        <v>3010726</v>
       </c>
       <c r="K128" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -4235,54 +4242,51 @@
         <v>2024</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E129" s="15">
-        <v>1867931</v>
-      </c>
-      <c r="F129" s="15">
-        <v>1565656</v>
-      </c>
-      <c r="G129" s="15">
-        <v>25263</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="3">
+        <v>3</v>
+      </c>
+      <c r="J129" s="3">
+        <v>265948</v>
+      </c>
+      <c r="K129" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>2024</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="3">
-        <v>1</v>
-      </c>
-      <c r="J130" s="12">
-        <v>361585</v>
-      </c>
-      <c r="K130" s="8">
-        <v>0</v>
-      </c>
-      <c r="M130" s="20">
-        <f>F129-(J130+J131+J132)</f>
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="E130" s="15">
+        <v>2236703</v>
+      </c>
+      <c r="F130" s="15">
+        <v>1798650</v>
+      </c>
+      <c r="G130" s="15">
+        <v>23792</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -4290,28 +4294,29 @@
         <v>2024</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" s="12">
-        <v>1113344</v>
+        <v>386743</v>
       </c>
       <c r="K131" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M131" s="20">
+        <f>F130-(J131+J132+J133)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -4319,28 +4324,28 @@
         <v>2024</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I132" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" s="12">
-        <v>90727</v>
+        <v>1251313</v>
       </c>
       <c r="K132" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -4348,83 +4353,83 @@
         <v>2024</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E133" s="15">
-        <v>1969603</v>
-      </c>
-      <c r="F133" s="15">
-        <v>1631968</v>
-      </c>
-      <c r="G133" s="15">
-        <v>15037</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="3">
+        <v>3</v>
+      </c>
+      <c r="J133" s="12">
+        <v>160594</v>
+      </c>
+      <c r="K133" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>2024</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="3">
-        <v>1</v>
-      </c>
-      <c r="J134" s="12">
-        <v>119103</v>
-      </c>
-      <c r="K134" s="8">
-        <v>0</v>
-      </c>
-      <c r="M134" s="20">
-        <f>F133-(J134+J135+J136)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E134" s="15">
+        <v>1867931</v>
+      </c>
+      <c r="F134" s="15">
+        <v>1565656</v>
+      </c>
+      <c r="G134" s="15">
+        <v>25263</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>2024</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H135" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" s="12">
-        <v>1229069</v>
+        <v>361585</v>
       </c>
       <c r="K135" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M135" s="20">
+        <f>F134-(J135+J136+J137)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -4432,28 +4437,28 @@
         <v>2024</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I136" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" s="12">
-        <v>283796</v>
+        <v>1113344</v>
       </c>
       <c r="K136" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -4461,83 +4466,83 @@
         <v>2024</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E137" s="15">
-        <v>3775910</v>
-      </c>
-      <c r="F137" s="15">
-        <v>3085400</v>
-      </c>
-      <c r="G137" s="15">
-        <v>42946</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="3">
+        <v>3</v>
+      </c>
+      <c r="J137" s="12">
+        <v>90727</v>
+      </c>
+      <c r="K137" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>2024</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" s="3">
-        <v>1</v>
-      </c>
-      <c r="J138" s="12">
-        <v>1744042</v>
-      </c>
-      <c r="K138" s="8">
-        <v>0</v>
-      </c>
-      <c r="M138" s="20">
-        <f>F137-(J138+J139+J140)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E138" s="15">
+        <v>1969603</v>
+      </c>
+      <c r="F138" s="15">
+        <v>1631968</v>
+      </c>
+      <c r="G138" s="15">
+        <v>15037</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>2024</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" s="12">
-        <v>1217314</v>
+        <v>119103</v>
       </c>
       <c r="K139" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M139" s="20">
+        <f>F138-(J139+J140+J141)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -4545,28 +4550,28 @@
         <v>2024</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I140" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" s="12">
-        <v>124044</v>
+        <v>1229069</v>
       </c>
       <c r="K140" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -4574,22 +4579,28 @@
         <v>2024</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E141" s="15">
-        <v>6017438</v>
-      </c>
-      <c r="F141" s="15">
-        <v>5253631</v>
-      </c>
-      <c r="G141" s="15">
-        <v>182496</v>
+        <v>46</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="3">
+        <v>3</v>
+      </c>
+      <c r="J141" s="12">
+        <v>283796</v>
+      </c>
+      <c r="K141" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -4597,58 +4608,57 @@
         <v>2024</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="3">
-        <v>1</v>
-      </c>
-      <c r="J142" s="12">
-        <v>997299</v>
-      </c>
-      <c r="K142" s="8">
-        <v>0</v>
-      </c>
-      <c r="M142" s="20">
-        <f>F141-(J142+J143+J144)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E142" s="15">
+        <v>3775910</v>
+      </c>
+      <c r="F142" s="15">
+        <v>3085400</v>
+      </c>
+      <c r="G142" s="15">
+        <v>42946</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>2024</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" s="12">
-        <v>3649651</v>
+        <v>1744042</v>
       </c>
       <c r="K143" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M143" s="20">
+        <f>F142-(J143+J144+J145)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -4656,28 +4666,25 @@
         <v>2024</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H144" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I144" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" s="12">
-        <v>606681</v>
+        <v>1217314</v>
       </c>
       <c r="K144" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -4685,22 +4692,28 @@
         <v>2024</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E145" s="15">
-        <v>10471779</v>
-      </c>
-      <c r="F145" s="15">
-        <v>7999556</v>
-      </c>
-      <c r="G145" s="15">
-        <v>150232</v>
+        <v>46</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="3">
+        <v>3</v>
+      </c>
+      <c r="J145" s="12">
+        <v>124044</v>
+      </c>
+      <c r="K145" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -4708,29 +4721,22 @@
         <v>2024</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="3">
-        <v>1</v>
-      </c>
-      <c r="J146" s="12">
-        <v>2339620</v>
-      </c>
-      <c r="K146" s="8">
-        <v>0</v>
-      </c>
-      <c r="M146" s="20">
-        <f>F145-(J146+J147+J148)</f>
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="E146" s="15">
+        <v>6017438</v>
+      </c>
+      <c r="F146" s="15">
+        <v>5253631</v>
+      </c>
+      <c r="G146" s="15">
+        <v>182496</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -4738,28 +4744,29 @@
         <v>2024</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+        <v>46</v>
+      </c>
       <c r="H147" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I147" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" s="12">
-        <v>4660408</v>
+        <v>997299</v>
       </c>
       <c r="K147" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M147" s="20">
+        <f>F146-(J147+J148+J149)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -4767,44 +4774,169 @@
         <v>2024</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I148" s="3">
+        <v>2</v>
+      </c>
+      <c r="J148" s="12">
+        <v>3649651</v>
+      </c>
+      <c r="K148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="3">
+      <c r="I149" s="3">
         <v>3</v>
       </c>
-      <c r="J148" s="12">
+      <c r="J149" s="12">
+        <v>606681</v>
+      </c>
+      <c r="K149" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="15">
+        <v>10471779</v>
+      </c>
+      <c r="F150" s="15">
+        <v>7999556</v>
+      </c>
+      <c r="G150" s="15">
+        <v>150232</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+      <c r="J151" s="12">
+        <v>2339620</v>
+      </c>
+      <c r="K151" s="8">
+        <v>0</v>
+      </c>
+      <c r="M151" s="20">
+        <f>F150-(J151+J152+J153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I152" s="3">
+        <v>2</v>
+      </c>
+      <c r="J152" s="12">
+        <v>4660408</v>
+      </c>
+      <c r="K152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="3">
+        <v>3</v>
+      </c>
+      <c r="J153" s="12">
         <v>999528</v>
       </c>
-      <c r="K148" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J149" s="13"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J150" s="13"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J151" s="13"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J152" s="13"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J153" s="13"/>
+      <c r="K153" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J154" s="13"/>
@@ -5597,6 +5729,21 @@
     </row>
     <row r="417" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J417" s="13"/>
+    </row>
+    <row r="418" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J418" s="13"/>
+    </row>
+    <row r="419" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J419" s="13"/>
+    </row>
+    <row r="420" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J420" s="13"/>
+    </row>
+    <row r="421" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J421" s="13"/>
+    </row>
+    <row r="422" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J422" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
